--- a/Reportes/Reporte_Data_60_Salidas_composición_zonas_homogéneas.xlsx_simulated_annealing.xlsx
+++ b/Reportes/Reporte_Data_60_Salidas_composición_zonas_homogéneas.xlsx_simulated_annealing.xlsx
@@ -30,385 +30,385 @@
     <t>Data_60_Salidas_composición_zonas_homogéneas.xlsx</t>
   </si>
   <si>
+    <t>Z2</t>
+  </si>
+  <si>
+    <t>Z3</t>
+  </si>
+  <si>
+    <t>387,9</t>
+  </si>
+  <si>
+    <t>Pedido</t>
+  </si>
+  <si>
+    <t>Salida</t>
+  </si>
+  <si>
+    <t>Pedido_1</t>
+  </si>
+  <si>
+    <t>Pedido_2</t>
+  </si>
+  <si>
+    <t>Pedido_3</t>
+  </si>
+  <si>
+    <t>Pedido_4</t>
+  </si>
+  <si>
+    <t>Pedido_5</t>
+  </si>
+  <si>
+    <t>Pedido_6</t>
+  </si>
+  <si>
+    <t>Pedido_7</t>
+  </si>
+  <si>
+    <t>Pedido_8</t>
+  </si>
+  <si>
+    <t>Pedido_9</t>
+  </si>
+  <si>
+    <t>Pedido_10</t>
+  </si>
+  <si>
+    <t>Pedido_11</t>
+  </si>
+  <si>
+    <t>Pedido_12</t>
+  </si>
+  <si>
+    <t>Pedido_13</t>
+  </si>
+  <si>
+    <t>Pedido_14</t>
+  </si>
+  <si>
+    <t>Pedido_15</t>
+  </si>
+  <si>
+    <t>Pedido_16</t>
+  </si>
+  <si>
+    <t>Pedido_17</t>
+  </si>
+  <si>
+    <t>Pedido_18</t>
+  </si>
+  <si>
+    <t>Pedido_19</t>
+  </si>
+  <si>
+    <t>Pedido_20</t>
+  </si>
+  <si>
+    <t>Pedido_21</t>
+  </si>
+  <si>
+    <t>Pedido_22</t>
+  </si>
+  <si>
+    <t>Pedido_23</t>
+  </si>
+  <si>
+    <t>Pedido_24</t>
+  </si>
+  <si>
+    <t>Pedido_25</t>
+  </si>
+  <si>
+    <t>Pedido_26</t>
+  </si>
+  <si>
+    <t>Pedido_27</t>
+  </si>
+  <si>
+    <t>Pedido_28</t>
+  </si>
+  <si>
+    <t>Pedido_29</t>
+  </si>
+  <si>
+    <t>Pedido_30</t>
+  </si>
+  <si>
+    <t>Pedido_31</t>
+  </si>
+  <si>
+    <t>Pedido_32</t>
+  </si>
+  <si>
+    <t>Pedido_33</t>
+  </si>
+  <si>
+    <t>Pedido_34</t>
+  </si>
+  <si>
+    <t>Pedido_35</t>
+  </si>
+  <si>
+    <t>Pedido_36</t>
+  </si>
+  <si>
+    <t>Pedido_37</t>
+  </si>
+  <si>
+    <t>Pedido_38</t>
+  </si>
+  <si>
+    <t>Pedido_39</t>
+  </si>
+  <si>
+    <t>Pedido_40</t>
+  </si>
+  <si>
+    <t>Pedido_41</t>
+  </si>
+  <si>
+    <t>Pedido_42</t>
+  </si>
+  <si>
+    <t>Pedido_43</t>
+  </si>
+  <si>
+    <t>Pedido_44</t>
+  </si>
+  <si>
+    <t>Pedido_45</t>
+  </si>
+  <si>
+    <t>Pedido_46</t>
+  </si>
+  <si>
+    <t>Pedido_47</t>
+  </si>
+  <si>
+    <t>Pedido_48</t>
+  </si>
+  <si>
+    <t>Pedido_49</t>
+  </si>
+  <si>
+    <t>Pedido_50</t>
+  </si>
+  <si>
+    <t>Pedido_51</t>
+  </si>
+  <si>
+    <t>Pedido_52</t>
+  </si>
+  <si>
+    <t>Pedido_53</t>
+  </si>
+  <si>
+    <t>Pedido_54</t>
+  </si>
+  <si>
+    <t>Pedido_55</t>
+  </si>
+  <si>
+    <t>Pedido_56</t>
+  </si>
+  <si>
+    <t>Pedido_57</t>
+  </si>
+  <si>
+    <t>Pedido_58</t>
+  </si>
+  <si>
+    <t>Pedido_59</t>
+  </si>
+  <si>
+    <t>Pedido_60</t>
+  </si>
+  <si>
+    <t>S060</t>
+  </si>
+  <si>
+    <t>S009</t>
+  </si>
+  <si>
+    <t>S030</t>
+  </si>
+  <si>
+    <t>S027</t>
+  </si>
+  <si>
+    <t>S048</t>
+  </si>
+  <si>
+    <t>S044</t>
+  </si>
+  <si>
+    <t>S046</t>
+  </si>
+  <si>
+    <t>S055</t>
+  </si>
+  <si>
+    <t>S054</t>
+  </si>
+  <si>
+    <t>S024</t>
+  </si>
+  <si>
+    <t>S001</t>
+  </si>
+  <si>
+    <t>S007</t>
+  </si>
+  <si>
+    <t>S019</t>
+  </si>
+  <si>
+    <t>S043</t>
+  </si>
+  <si>
+    <t>S022</t>
+  </si>
+  <si>
+    <t>S031</t>
+  </si>
+  <si>
+    <t>S032</t>
+  </si>
+  <si>
+    <t>S051</t>
+  </si>
+  <si>
+    <t>S013</t>
+  </si>
+  <si>
+    <t>S036</t>
+  </si>
+  <si>
+    <t>S020</t>
+  </si>
+  <si>
+    <t>S008</t>
+  </si>
+  <si>
+    <t>S006</t>
+  </si>
+  <si>
+    <t>S025</t>
+  </si>
+  <si>
+    <t>S015</t>
+  </si>
+  <si>
+    <t>S053</t>
+  </si>
+  <si>
+    <t>S033</t>
+  </si>
+  <si>
+    <t>S016</t>
+  </si>
+  <si>
+    <t>S047</t>
+  </si>
+  <si>
+    <t>S014</t>
+  </si>
+  <si>
+    <t>S010</t>
+  </si>
+  <si>
+    <t>S026</t>
+  </si>
+  <si>
+    <t>S052</t>
+  </si>
+  <si>
+    <t>S057</t>
+  </si>
+  <si>
+    <t>S049</t>
+  </si>
+  <si>
+    <t>S034</t>
+  </si>
+  <si>
+    <t>S017</t>
+  </si>
+  <si>
+    <t>S037</t>
+  </si>
+  <si>
+    <t>S038</t>
+  </si>
+  <si>
+    <t>S002</t>
+  </si>
+  <si>
+    <t>S056</t>
+  </si>
+  <si>
+    <t>S035</t>
+  </si>
+  <si>
+    <t>S050</t>
+  </si>
+  <si>
+    <t>S029</t>
+  </si>
+  <si>
+    <t>S028</t>
+  </si>
+  <si>
+    <t>S040</t>
+  </si>
+  <si>
+    <t>S018</t>
+  </si>
+  <si>
+    <t>S042</t>
+  </si>
+  <si>
+    <t>S011</t>
+  </si>
+  <si>
+    <t>S039</t>
+  </si>
+  <si>
+    <t>S045</t>
+  </si>
+  <si>
+    <t>S003</t>
+  </si>
+  <si>
+    <t>S023</t>
+  </si>
+  <si>
+    <t>S005</t>
+  </si>
+  <si>
+    <t>S058</t>
+  </si>
+  <si>
+    <t>S041</t>
+  </si>
+  <si>
+    <t>S004</t>
+  </si>
+  <si>
+    <t>S012</t>
+  </si>
+  <si>
+    <t>S059</t>
+  </si>
+  <si>
+    <t>S021</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
     <t>Z1</t>
-  </si>
-  <si>
-    <t>Z2</t>
-  </si>
-  <si>
-    <t>387,9</t>
-  </si>
-  <si>
-    <t>Pedido</t>
-  </si>
-  <si>
-    <t>Salida</t>
-  </si>
-  <si>
-    <t>Pedido_1</t>
-  </si>
-  <si>
-    <t>Pedido_2</t>
-  </si>
-  <si>
-    <t>Pedido_3</t>
-  </si>
-  <si>
-    <t>Pedido_4</t>
-  </si>
-  <si>
-    <t>Pedido_5</t>
-  </si>
-  <si>
-    <t>Pedido_6</t>
-  </si>
-  <si>
-    <t>Pedido_7</t>
-  </si>
-  <si>
-    <t>Pedido_8</t>
-  </si>
-  <si>
-    <t>Pedido_9</t>
-  </si>
-  <si>
-    <t>Pedido_10</t>
-  </si>
-  <si>
-    <t>Pedido_11</t>
-  </si>
-  <si>
-    <t>Pedido_12</t>
-  </si>
-  <si>
-    <t>Pedido_13</t>
-  </si>
-  <si>
-    <t>Pedido_14</t>
-  </si>
-  <si>
-    <t>Pedido_15</t>
-  </si>
-  <si>
-    <t>Pedido_16</t>
-  </si>
-  <si>
-    <t>Pedido_17</t>
-  </si>
-  <si>
-    <t>Pedido_18</t>
-  </si>
-  <si>
-    <t>Pedido_19</t>
-  </si>
-  <si>
-    <t>Pedido_20</t>
-  </si>
-  <si>
-    <t>Pedido_21</t>
-  </si>
-  <si>
-    <t>Pedido_22</t>
-  </si>
-  <si>
-    <t>Pedido_23</t>
-  </si>
-  <si>
-    <t>Pedido_24</t>
-  </si>
-  <si>
-    <t>Pedido_25</t>
-  </si>
-  <si>
-    <t>Pedido_26</t>
-  </si>
-  <si>
-    <t>Pedido_27</t>
-  </si>
-  <si>
-    <t>Pedido_28</t>
-  </si>
-  <si>
-    <t>Pedido_29</t>
-  </si>
-  <si>
-    <t>Pedido_30</t>
-  </si>
-  <si>
-    <t>Pedido_31</t>
-  </si>
-  <si>
-    <t>Pedido_32</t>
-  </si>
-  <si>
-    <t>Pedido_33</t>
-  </si>
-  <si>
-    <t>Pedido_34</t>
-  </si>
-  <si>
-    <t>Pedido_35</t>
-  </si>
-  <si>
-    <t>Pedido_36</t>
-  </si>
-  <si>
-    <t>Pedido_37</t>
-  </si>
-  <si>
-    <t>Pedido_38</t>
-  </si>
-  <si>
-    <t>Pedido_39</t>
-  </si>
-  <si>
-    <t>Pedido_40</t>
-  </si>
-  <si>
-    <t>Pedido_41</t>
-  </si>
-  <si>
-    <t>Pedido_42</t>
-  </si>
-  <si>
-    <t>Pedido_43</t>
-  </si>
-  <si>
-    <t>Pedido_44</t>
-  </si>
-  <si>
-    <t>Pedido_45</t>
-  </si>
-  <si>
-    <t>Pedido_46</t>
-  </si>
-  <si>
-    <t>Pedido_47</t>
-  </si>
-  <si>
-    <t>Pedido_48</t>
-  </si>
-  <si>
-    <t>Pedido_49</t>
-  </si>
-  <si>
-    <t>Pedido_50</t>
-  </si>
-  <si>
-    <t>Pedido_51</t>
-  </si>
-  <si>
-    <t>Pedido_52</t>
-  </si>
-  <si>
-    <t>Pedido_53</t>
-  </si>
-  <si>
-    <t>Pedido_54</t>
-  </si>
-  <si>
-    <t>Pedido_55</t>
-  </si>
-  <si>
-    <t>Pedido_56</t>
-  </si>
-  <si>
-    <t>Pedido_57</t>
-  </si>
-  <si>
-    <t>Pedido_58</t>
-  </si>
-  <si>
-    <t>Pedido_59</t>
-  </si>
-  <si>
-    <t>Pedido_60</t>
-  </si>
-  <si>
-    <t>S053</t>
-  </si>
-  <si>
-    <t>S057</t>
-  </si>
-  <si>
-    <t>S044</t>
-  </si>
-  <si>
-    <t>S020</t>
-  </si>
-  <si>
-    <t>S042</t>
-  </si>
-  <si>
-    <t>S027</t>
-  </si>
-  <si>
-    <t>S039</t>
-  </si>
-  <si>
-    <t>S021</t>
-  </si>
-  <si>
-    <t>S052</t>
-  </si>
-  <si>
-    <t>S006</t>
-  </si>
-  <si>
-    <t>S023</t>
-  </si>
-  <si>
-    <t>S015</t>
-  </si>
-  <si>
-    <t>S008</t>
-  </si>
-  <si>
-    <t>S037</t>
-  </si>
-  <si>
-    <t>S046</t>
-  </si>
-  <si>
-    <t>S003</t>
-  </si>
-  <si>
-    <t>S047</t>
-  </si>
-  <si>
-    <t>S048</t>
-  </si>
-  <si>
-    <t>S028</t>
-  </si>
-  <si>
-    <t>S014</t>
-  </si>
-  <si>
-    <t>S005</t>
-  </si>
-  <si>
-    <t>S018</t>
-  </si>
-  <si>
-    <t>S050</t>
-  </si>
-  <si>
-    <t>S013</t>
-  </si>
-  <si>
-    <t>S043</t>
-  </si>
-  <si>
-    <t>S049</t>
-  </si>
-  <si>
-    <t>S031</t>
-  </si>
-  <si>
-    <t>S035</t>
-  </si>
-  <si>
-    <t>S059</t>
-  </si>
-  <si>
-    <t>S026</t>
-  </si>
-  <si>
-    <t>S019</t>
-  </si>
-  <si>
-    <t>S056</t>
-  </si>
-  <si>
-    <t>S004</t>
-  </si>
-  <si>
-    <t>S017</t>
-  </si>
-  <si>
-    <t>S038</t>
-  </si>
-  <si>
-    <t>S045</t>
-  </si>
-  <si>
-    <t>S040</t>
-  </si>
-  <si>
-    <t>S024</t>
-  </si>
-  <si>
-    <t>S002</t>
-  </si>
-  <si>
-    <t>S022</t>
-  </si>
-  <si>
-    <t>S033</t>
-  </si>
-  <si>
-    <t>S011</t>
-  </si>
-  <si>
-    <t>S007</t>
-  </si>
-  <si>
-    <t>S016</t>
-  </si>
-  <si>
-    <t>S032</t>
-  </si>
-  <si>
-    <t>S036</t>
-  </si>
-  <si>
-    <t>S029</t>
-  </si>
-  <si>
-    <t>S012</t>
-  </si>
-  <si>
-    <t>S025</t>
-  </si>
-  <si>
-    <t>S030</t>
-  </si>
-  <si>
-    <t>S055</t>
-  </si>
-  <si>
-    <t>S051</t>
-  </si>
-  <si>
-    <t>S034</t>
-  </si>
-  <si>
-    <t>S010</t>
-  </si>
-  <si>
-    <t>S060</t>
-  </si>
-  <si>
-    <t>S054</t>
-  </si>
-  <si>
-    <t>S001</t>
-  </si>
-  <si>
-    <t>S009</t>
-  </si>
-  <si>
-    <t>S041</t>
-  </si>
-  <si>
-    <t>S058</t>
-  </si>
-  <si>
-    <t>Tiempo</t>
-  </si>
-  <si>
-    <t>Z3</t>
   </si>
   <si>
     <t>387,8</t>
@@ -1341,15 +1341,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1357,10 +1357,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Reportes/Reporte_Data_60_Salidas_composición_zonas_homogéneas.xlsx_simulated_annealing.xlsx
+++ b/Reportes/Reporte_Data_60_Salidas_composición_zonas_homogéneas.xlsx_simulated_annealing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="132">
   <si>
     <t>Instancia</t>
   </si>
@@ -33,382 +33,382 @@
     <t>Z2</t>
   </si>
   <si>
+    <t>387,9</t>
+  </si>
+  <si>
+    <t>Pedido</t>
+  </si>
+  <si>
+    <t>Salida</t>
+  </si>
+  <si>
+    <t>Pedido_1</t>
+  </si>
+  <si>
+    <t>Pedido_2</t>
+  </si>
+  <si>
+    <t>Pedido_3</t>
+  </si>
+  <si>
+    <t>Pedido_4</t>
+  </si>
+  <si>
+    <t>Pedido_5</t>
+  </si>
+  <si>
+    <t>Pedido_6</t>
+  </si>
+  <si>
+    <t>Pedido_7</t>
+  </si>
+  <si>
+    <t>Pedido_8</t>
+  </si>
+  <si>
+    <t>Pedido_9</t>
+  </si>
+  <si>
+    <t>Pedido_10</t>
+  </si>
+  <si>
+    <t>Pedido_11</t>
+  </si>
+  <si>
+    <t>Pedido_12</t>
+  </si>
+  <si>
+    <t>Pedido_13</t>
+  </si>
+  <si>
+    <t>Pedido_14</t>
+  </si>
+  <si>
+    <t>Pedido_15</t>
+  </si>
+  <si>
+    <t>Pedido_16</t>
+  </si>
+  <si>
+    <t>Pedido_17</t>
+  </si>
+  <si>
+    <t>Pedido_18</t>
+  </si>
+  <si>
+    <t>Pedido_19</t>
+  </si>
+  <si>
+    <t>Pedido_20</t>
+  </si>
+  <si>
+    <t>Pedido_21</t>
+  </si>
+  <si>
+    <t>Pedido_22</t>
+  </si>
+  <si>
+    <t>Pedido_23</t>
+  </si>
+  <si>
+    <t>Pedido_24</t>
+  </si>
+  <si>
+    <t>Pedido_25</t>
+  </si>
+  <si>
+    <t>Pedido_26</t>
+  </si>
+  <si>
+    <t>Pedido_27</t>
+  </si>
+  <si>
+    <t>Pedido_28</t>
+  </si>
+  <si>
+    <t>Pedido_29</t>
+  </si>
+  <si>
+    <t>Pedido_30</t>
+  </si>
+  <si>
+    <t>Pedido_31</t>
+  </si>
+  <si>
+    <t>Pedido_32</t>
+  </si>
+  <si>
+    <t>Pedido_33</t>
+  </si>
+  <si>
+    <t>Pedido_34</t>
+  </si>
+  <si>
+    <t>Pedido_35</t>
+  </si>
+  <si>
+    <t>Pedido_36</t>
+  </si>
+  <si>
+    <t>Pedido_37</t>
+  </si>
+  <si>
+    <t>Pedido_38</t>
+  </si>
+  <si>
+    <t>Pedido_39</t>
+  </si>
+  <si>
+    <t>Pedido_40</t>
+  </si>
+  <si>
+    <t>Pedido_41</t>
+  </si>
+  <si>
+    <t>Pedido_42</t>
+  </si>
+  <si>
+    <t>Pedido_43</t>
+  </si>
+  <si>
+    <t>Pedido_44</t>
+  </si>
+  <si>
+    <t>Pedido_45</t>
+  </si>
+  <si>
+    <t>Pedido_46</t>
+  </si>
+  <si>
+    <t>Pedido_47</t>
+  </si>
+  <si>
+    <t>Pedido_48</t>
+  </si>
+  <si>
+    <t>Pedido_49</t>
+  </si>
+  <si>
+    <t>Pedido_50</t>
+  </si>
+  <si>
+    <t>Pedido_51</t>
+  </si>
+  <si>
+    <t>Pedido_52</t>
+  </si>
+  <si>
+    <t>Pedido_53</t>
+  </si>
+  <si>
+    <t>Pedido_54</t>
+  </si>
+  <si>
+    <t>Pedido_55</t>
+  </si>
+  <si>
+    <t>Pedido_56</t>
+  </si>
+  <si>
+    <t>Pedido_57</t>
+  </si>
+  <si>
+    <t>Pedido_58</t>
+  </si>
+  <si>
+    <t>Pedido_59</t>
+  </si>
+  <si>
+    <t>Pedido_60</t>
+  </si>
+  <si>
+    <t>S019</t>
+  </si>
+  <si>
+    <t>S043</t>
+  </si>
+  <si>
+    <t>S021</t>
+  </si>
+  <si>
+    <t>S012</t>
+  </si>
+  <si>
+    <t>S016</t>
+  </si>
+  <si>
+    <t>S023</t>
+  </si>
+  <si>
+    <t>S042</t>
+  </si>
+  <si>
+    <t>S032</t>
+  </si>
+  <si>
+    <t>S009</t>
+  </si>
+  <si>
+    <t>S020</t>
+  </si>
+  <si>
+    <t>S034</t>
+  </si>
+  <si>
+    <t>S029</t>
+  </si>
+  <si>
+    <t>S004</t>
+  </si>
+  <si>
+    <t>S039</t>
+  </si>
+  <si>
+    <t>S002</t>
+  </si>
+  <si>
+    <t>S024</t>
+  </si>
+  <si>
+    <t>S059</t>
+  </si>
+  <si>
+    <t>S050</t>
+  </si>
+  <si>
+    <t>S028</t>
+  </si>
+  <si>
+    <t>S046</t>
+  </si>
+  <si>
+    <t>S038</t>
+  </si>
+  <si>
+    <t>S051</t>
+  </si>
+  <si>
+    <t>S005</t>
+  </si>
+  <si>
+    <t>S049</t>
+  </si>
+  <si>
+    <t>S030</t>
+  </si>
+  <si>
+    <t>S045</t>
+  </si>
+  <si>
+    <t>S047</t>
+  </si>
+  <si>
+    <t>S031</t>
+  </si>
+  <si>
+    <t>S053</t>
+  </si>
+  <si>
+    <t>S011</t>
+  </si>
+  <si>
+    <t>S026</t>
+  </si>
+  <si>
+    <t>S027</t>
+  </si>
+  <si>
+    <t>S057</t>
+  </si>
+  <si>
+    <t>S014</t>
+  </si>
+  <si>
+    <t>S058</t>
+  </si>
+  <si>
+    <t>S035</t>
+  </si>
+  <si>
+    <t>S044</t>
+  </si>
+  <si>
+    <t>S022</t>
+  </si>
+  <si>
+    <t>S003</t>
+  </si>
+  <si>
+    <t>S054</t>
+  </si>
+  <si>
+    <t>S052</t>
+  </si>
+  <si>
+    <t>S007</t>
+  </si>
+  <si>
+    <t>S017</t>
+  </si>
+  <si>
+    <t>S056</t>
+  </si>
+  <si>
+    <t>S006</t>
+  </si>
+  <si>
+    <t>S041</t>
+  </si>
+  <si>
+    <t>S060</t>
+  </si>
+  <si>
+    <t>S037</t>
+  </si>
+  <si>
+    <t>S040</t>
+  </si>
+  <si>
+    <t>S001</t>
+  </si>
+  <si>
+    <t>S033</t>
+  </si>
+  <si>
+    <t>S010</t>
+  </si>
+  <si>
+    <t>S048</t>
+  </si>
+  <si>
+    <t>S015</t>
+  </si>
+  <si>
+    <t>S055</t>
+  </si>
+  <si>
+    <t>S036</t>
+  </si>
+  <si>
+    <t>S025</t>
+  </si>
+  <si>
+    <t>S018</t>
+  </si>
+  <si>
+    <t>S013</t>
+  </si>
+  <si>
+    <t>S008</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
+    <t>Z1</t>
+  </si>
+  <si>
     <t>Z3</t>
-  </si>
-  <si>
-    <t>387,9</t>
-  </si>
-  <si>
-    <t>Pedido</t>
-  </si>
-  <si>
-    <t>Salida</t>
-  </si>
-  <si>
-    <t>Pedido_1</t>
-  </si>
-  <si>
-    <t>Pedido_2</t>
-  </si>
-  <si>
-    <t>Pedido_3</t>
-  </si>
-  <si>
-    <t>Pedido_4</t>
-  </si>
-  <si>
-    <t>Pedido_5</t>
-  </si>
-  <si>
-    <t>Pedido_6</t>
-  </si>
-  <si>
-    <t>Pedido_7</t>
-  </si>
-  <si>
-    <t>Pedido_8</t>
-  </si>
-  <si>
-    <t>Pedido_9</t>
-  </si>
-  <si>
-    <t>Pedido_10</t>
-  </si>
-  <si>
-    <t>Pedido_11</t>
-  </si>
-  <si>
-    <t>Pedido_12</t>
-  </si>
-  <si>
-    <t>Pedido_13</t>
-  </si>
-  <si>
-    <t>Pedido_14</t>
-  </si>
-  <si>
-    <t>Pedido_15</t>
-  </si>
-  <si>
-    <t>Pedido_16</t>
-  </si>
-  <si>
-    <t>Pedido_17</t>
-  </si>
-  <si>
-    <t>Pedido_18</t>
-  </si>
-  <si>
-    <t>Pedido_19</t>
-  </si>
-  <si>
-    <t>Pedido_20</t>
-  </si>
-  <si>
-    <t>Pedido_21</t>
-  </si>
-  <si>
-    <t>Pedido_22</t>
-  </si>
-  <si>
-    <t>Pedido_23</t>
-  </si>
-  <si>
-    <t>Pedido_24</t>
-  </si>
-  <si>
-    <t>Pedido_25</t>
-  </si>
-  <si>
-    <t>Pedido_26</t>
-  </si>
-  <si>
-    <t>Pedido_27</t>
-  </si>
-  <si>
-    <t>Pedido_28</t>
-  </si>
-  <si>
-    <t>Pedido_29</t>
-  </si>
-  <si>
-    <t>Pedido_30</t>
-  </si>
-  <si>
-    <t>Pedido_31</t>
-  </si>
-  <si>
-    <t>Pedido_32</t>
-  </si>
-  <si>
-    <t>Pedido_33</t>
-  </si>
-  <si>
-    <t>Pedido_34</t>
-  </si>
-  <si>
-    <t>Pedido_35</t>
-  </si>
-  <si>
-    <t>Pedido_36</t>
-  </si>
-  <si>
-    <t>Pedido_37</t>
-  </si>
-  <si>
-    <t>Pedido_38</t>
-  </si>
-  <si>
-    <t>Pedido_39</t>
-  </si>
-  <si>
-    <t>Pedido_40</t>
-  </si>
-  <si>
-    <t>Pedido_41</t>
-  </si>
-  <si>
-    <t>Pedido_42</t>
-  </si>
-  <si>
-    <t>Pedido_43</t>
-  </si>
-  <si>
-    <t>Pedido_44</t>
-  </si>
-  <si>
-    <t>Pedido_45</t>
-  </si>
-  <si>
-    <t>Pedido_46</t>
-  </si>
-  <si>
-    <t>Pedido_47</t>
-  </si>
-  <si>
-    <t>Pedido_48</t>
-  </si>
-  <si>
-    <t>Pedido_49</t>
-  </si>
-  <si>
-    <t>Pedido_50</t>
-  </si>
-  <si>
-    <t>Pedido_51</t>
-  </si>
-  <si>
-    <t>Pedido_52</t>
-  </si>
-  <si>
-    <t>Pedido_53</t>
-  </si>
-  <si>
-    <t>Pedido_54</t>
-  </si>
-  <si>
-    <t>Pedido_55</t>
-  </si>
-  <si>
-    <t>Pedido_56</t>
-  </si>
-  <si>
-    <t>Pedido_57</t>
-  </si>
-  <si>
-    <t>Pedido_58</t>
-  </si>
-  <si>
-    <t>Pedido_59</t>
-  </si>
-  <si>
-    <t>Pedido_60</t>
-  </si>
-  <si>
-    <t>S060</t>
-  </si>
-  <si>
-    <t>S009</t>
-  </si>
-  <si>
-    <t>S030</t>
-  </si>
-  <si>
-    <t>S027</t>
-  </si>
-  <si>
-    <t>S048</t>
-  </si>
-  <si>
-    <t>S044</t>
-  </si>
-  <si>
-    <t>S046</t>
-  </si>
-  <si>
-    <t>S055</t>
-  </si>
-  <si>
-    <t>S054</t>
-  </si>
-  <si>
-    <t>S024</t>
-  </si>
-  <si>
-    <t>S001</t>
-  </si>
-  <si>
-    <t>S007</t>
-  </si>
-  <si>
-    <t>S019</t>
-  </si>
-  <si>
-    <t>S043</t>
-  </si>
-  <si>
-    <t>S022</t>
-  </si>
-  <si>
-    <t>S031</t>
-  </si>
-  <si>
-    <t>S032</t>
-  </si>
-  <si>
-    <t>S051</t>
-  </si>
-  <si>
-    <t>S013</t>
-  </si>
-  <si>
-    <t>S036</t>
-  </si>
-  <si>
-    <t>S020</t>
-  </si>
-  <si>
-    <t>S008</t>
-  </si>
-  <si>
-    <t>S006</t>
-  </si>
-  <si>
-    <t>S025</t>
-  </si>
-  <si>
-    <t>S015</t>
-  </si>
-  <si>
-    <t>S053</t>
-  </si>
-  <si>
-    <t>S033</t>
-  </si>
-  <si>
-    <t>S016</t>
-  </si>
-  <si>
-    <t>S047</t>
-  </si>
-  <si>
-    <t>S014</t>
-  </si>
-  <si>
-    <t>S010</t>
-  </si>
-  <si>
-    <t>S026</t>
-  </si>
-  <si>
-    <t>S052</t>
-  </si>
-  <si>
-    <t>S057</t>
-  </si>
-  <si>
-    <t>S049</t>
-  </si>
-  <si>
-    <t>S034</t>
-  </si>
-  <si>
-    <t>S017</t>
-  </si>
-  <si>
-    <t>S037</t>
-  </si>
-  <si>
-    <t>S038</t>
-  </si>
-  <si>
-    <t>S002</t>
-  </si>
-  <si>
-    <t>S056</t>
-  </si>
-  <si>
-    <t>S035</t>
-  </si>
-  <si>
-    <t>S050</t>
-  </si>
-  <si>
-    <t>S029</t>
-  </si>
-  <si>
-    <t>S028</t>
-  </si>
-  <si>
-    <t>S040</t>
-  </si>
-  <si>
-    <t>S018</t>
-  </si>
-  <si>
-    <t>S042</t>
-  </si>
-  <si>
-    <t>S011</t>
-  </si>
-  <si>
-    <t>S039</t>
-  </si>
-  <si>
-    <t>S045</t>
-  </si>
-  <si>
-    <t>S003</t>
-  </si>
-  <si>
-    <t>S023</t>
-  </si>
-  <si>
-    <t>S005</t>
-  </si>
-  <si>
-    <t>S058</t>
-  </si>
-  <si>
-    <t>S041</t>
-  </si>
-  <si>
-    <t>S004</t>
-  </si>
-  <si>
-    <t>S012</t>
-  </si>
-  <si>
-    <t>S059</t>
-  </si>
-  <si>
-    <t>S021</t>
-  </si>
-  <si>
-    <t>Tiempo</t>
-  </si>
-  <si>
-    <t>Z1</t>
   </si>
   <si>
     <t>387,8</t>
@@ -769,7 +769,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -797,18 +797,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -829,490 +818,490 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1336,12 +1325,12 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
         <v>131</v>
@@ -1352,15 +1341,15 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
